--- a/SuppXLS/Scen_SUP_BioImp-On.xlsx
+++ b/SuppXLS/Scen_SUP_BioImp-On.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E18DF7-58C6-4764-89DA-5C4ECDDBBDDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7498474-A671-45C2-BCE7-9BD027189E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -294,9 +294,6 @@
     <t>UP</t>
   </si>
   <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
     <t>ACT_BND</t>
   </si>
   <si>
@@ -306,14 +303,17 @@
     <t>- this is meant to get rid of any ACT_BND spedified elsewhere</t>
   </si>
   <si>
-    <t>IMPBIO*1G*2,IMPBIO*1G*3,IMPBIO*1G*4</t>
+    <t>IMPBIO*2,IMPBIO*3,IMPBIO*4</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +353,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,6 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,9 +596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -617,9 +636,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,26 +671,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,26 +706,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -903,39 +888,39 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -1049,12 +1034,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1154,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1271,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1388,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1435,7 +1420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1443,7 +1428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -1459,7 +1444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1467,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
@@ -1483,7 +1468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
@@ -1499,7 +1484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
@@ -1507,7 +1492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>37</v>
       </c>
@@ -1515,7 +1500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
@@ -1523,7 +1508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1531,7 +1516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>43</v>
       </c>
@@ -1539,7 +1524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -1547,7 +1532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>47</v>
       </c>
@@ -1555,7 +1540,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>49</v>
       </c>
@@ -1563,7 +1548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>51</v>
       </c>
@@ -1571,7 +1556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>53</v>
       </c>
@@ -1579,7 +1564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
@@ -1595,7 +1580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>59</v>
       </c>
@@ -1603,7 +1588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>61</v>
       </c>
@@ -1611,7 +1596,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>63</v>
       </c>
@@ -1619,7 +1604,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>65</v>
       </c>
@@ -1662,32 +1647,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B4:L6"/>
+  <dimension ref="B4:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1714,38 +1701,166 @@
       <c r="I5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="13"/>
+      <c r="K5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6">
+        <v>2020</v>
+      </c>
+      <c r="F6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
       </c>
       <c r="G6">
         <f>F6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6">
+        <v>70</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G12" si="0">F7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>2030</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>2035</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <v>2040</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>2045</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>2050</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SuppXLS/Scen_SUP_BioImp-On.xlsx
+++ b/SuppXLS/Scen_SUP_BioImp-On.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7498474-A671-45C2-BCE7-9BD027189E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE374AE-0A12-4F37-986F-8F0D3E92A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="1110" windowWidth="21640" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -300,13 +300,13 @@
     <t>TS_Filter</t>
   </si>
   <si>
-    <t>- this is meant to get rid of any ACT_BND spedified elsewhere</t>
-  </si>
-  <si>
     <t>IMPBIO*2,IMPBIO*3,IMPBIO*4</t>
   </si>
   <si>
     <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>- this is meant to set ban on any imports except existing ones</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1650,7 @@
   <dimension ref="B4:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1668,7 +1668,7 @@
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
